--- a/Experiment/整體狀態.xlsx
+++ b/Experiment/整體狀態.xlsx
@@ -1,25 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F8361-A532-47B5-9980-92DF159CD0AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>餐點名</t>
+  </si>
+  <si>
+    <t>估測區間</t>
+  </si>
+  <si>
+    <t>信心水平</t>
+  </si>
+  <si>
+    <t>頂點峰值</t>
+  </si>
+  <si>
+    <t>總和</t>
+  </si>
+  <si>
+    <t>實際資料</t>
+  </si>
+  <si>
+    <t>差異百分比</t>
+  </si>
+  <si>
+    <t>差異百分比平均</t>
+  </si>
+  <si>
+    <t>差異值</t>
+  </si>
+  <si>
+    <t>台灣小吃部(3-麵食部)</t>
+  </si>
+  <si>
+    <t>台灣小吃部(1-飯食部)</t>
+  </si>
+  <si>
+    <t>台灣小吃部(2-焗烤部)</t>
+  </si>
+  <si>
+    <t>愛佳便當(9-飯食部)</t>
+  </si>
+  <si>
+    <t>愛佳便當(10-麵食部)</t>
+  </si>
+  <si>
+    <t>合作社(17-素食部)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +388,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>260</v>
+      </c>
+      <c r="E4">
+        <f>SUM(D2:D4)</f>
+        <v>260</v>
+      </c>
+      <c r="F4">
+        <v>254</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(ABS(((E4/E8)-(F4/F8))*100),1)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I4">
+        <f>ABS(E4-F4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D5:D6)</f>
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <f>ROUND(ABS(((E6/E8)-(F6/F8))*100),1)</f>
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I7" si="0">ABS(E6-F6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>D7</f>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(ABS(((E7/E8)-(F7/F8))*100),1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H7">
+        <f>ROUND(AVERAGE(G4,G6,G7),1)</f>
+        <v>3.4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(I2:I7)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>312</v>
+      </c>
+      <c r="E8">
+        <f>D8</f>
+        <v>312</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>288</v>
+      </c>
+      <c r="G8" t="str">
+        <f>ROUND(ABS((E8-F8)/F8)*100,1) &amp; "%"</f>
+        <v>8.3%</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>